--- a/CS297TeamParticipationRubric.xlsx
+++ b/CS297TeamParticipationRubric.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS297-CourseMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS297-CourseMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AC8D46-1D13-BD4C-B319-28B62B59A9F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2F0742-BB46-4530-AEBD-C73504C8745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="20420" windowHeight="14580" activeTab="1" xr2:uid="{AF13BEBC-A70C-7746-A217-C0986067414B}"/>
+    <workbookView xWindow="-15444" yWindow="4596" windowWidth="13560" windowHeight="11592" activeTab="1" xr2:uid="{AF13BEBC-A70C-7746-A217-C0986067414B}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="5" r:id="rId1"/>
     <sheet name="Score" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
-  <si>
-    <t>Actual</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Possible</t>
   </si>
@@ -43,19 +51,34 @@
     <t>Team Participation Rubirc</t>
   </si>
   <si>
-    <t>Git pull requests (1 per week or more)</t>
-  </si>
-  <si>
-    <t>Team work session participation</t>
-  </si>
-  <si>
-    <t>Sprint meeting attendance</t>
-  </si>
-  <si>
-    <t>User story points completed (8 per week or more)</t>
-  </si>
-  <si>
-    <t>Hours worked (12 per week or more)</t>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Git pull requests (1 per week)</t>
+  </si>
+  <si>
+    <t>Hours worked (12 per week)</t>
+  </si>
+  <si>
+    <t>Total (100 maximum)</t>
+  </si>
+  <si>
+    <t>User story hours completed (8 per week)</t>
+  </si>
+  <si>
+    <t>Team work sessions (4 per week)</t>
+  </si>
+  <si>
+    <t>Daily Stand-ups (4 per week)</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>You did a good job of contributig to the success your team's project! Here is the participation grade breakdown:</t>
+  </si>
+  <si>
+    <t>Sprint meeting attendance (3 per sprint)</t>
   </si>
 </sst>
 </file>
@@ -132,15 +155,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,106 +482,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6662C2-7199-1645-91C1-71CF72318609}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="2.19921875" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <f>SUM(A4:A8)</f>
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <f>SUM(B4:B8)</f>
-        <v>100</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,109 +576,171 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EED8CF-87BF-B045-8BE5-8B8B47C7AD07}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.296875" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" customWidth="1"/>
+    <col min="5" max="5" width="36.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B6">
+        <f>C6*2</f>
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B7">
+        <f>C7*3/8</f>
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>C8*2/3</f>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>C9/4</f>
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>C10/4</f>
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <f>C11/6</f>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>SUM(A6:A11)</f>
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B6:B11)</f>
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f>SUM(A4:A8)</f>
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <f>SUM(B4:B8)</f>
-        <v>100</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>